--- a/practicing/内战data/内战计分表 - 2026.xlsx
+++ b/practicing/内战data/内战计分表 - 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Ubiquant\code\HOK\hok_bp\practicing\内战data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82ADA128-EED4-4397-980A-37007CF2DBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659D9B25-2B4E-4BDC-B74E-B8EB7ECE1078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7388" yWindow="16103" windowWidth="23235" windowHeight="13994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总结表" sheetId="2" r:id="rId1"/>
@@ -1013,7 +1013,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1476,26 +1476,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB53C56-BFC6-4AC6-8822-6483337EA216}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.46484375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.73046875" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="1"/>
-    <col min="4" max="6" width="13.06640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.06640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.796875" style="1" customWidth="1"/>
-    <col min="10" max="14" width="13.06640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.796875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.1328125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.06640625" style="1"/>
+    <col min="4" max="6" width="13.08203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.08203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="1" customWidth="1"/>
+    <col min="10" max="14" width="13.08203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1640625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.08203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1542,7 +1540,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -1589,7 +1587,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -1636,7 +1634,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -1683,7 +1681,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -1730,7 +1728,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="21" customFormat="1">
+    <row r="6" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -1777,7 +1775,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="21" customFormat="1">
+    <row r="7" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -1824,7 +1822,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="21" customFormat="1">
+    <row r="8" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -1871,7 +1869,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="21" customFormat="1">
+    <row r="9" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -1918,7 +1916,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="21" customFormat="1">
+    <row r="10" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -1965,7 +1963,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>10</v>
       </c>
@@ -2012,7 +2010,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -2059,7 +2057,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>12</v>
       </c>
@@ -2106,7 +2104,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>13</v>
       </c>
@@ -2153,7 +2151,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>14</v>
       </c>
@@ -2200,7 +2198,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -2247,7 +2245,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>16</v>
       </c>
@@ -2294,7 +2292,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -2341,7 +2339,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>18</v>
       </c>
@@ -2388,7 +2386,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>19</v>
       </c>
@@ -2435,7 +2433,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>20</v>
       </c>
@@ -2482,7 +2480,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -2529,7 +2527,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>22</v>
       </c>
@@ -2576,7 +2574,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>23</v>
       </c>
@@ -2623,7 +2621,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>24</v>
       </c>
@@ -2670,7 +2668,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>25</v>
       </c>
@@ -2717,7 +2715,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>26</v>
       </c>
@@ -2764,7 +2762,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>27</v>
       </c>
@@ -2811,7 +2809,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>28</v>
       </c>
@@ -2858,7 +2856,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>29</v>
       </c>
@@ -2905,7 +2903,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>30</v>
       </c>
@@ -2952,7 +2950,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>31</v>
       </c>
@@ -2999,7 +2997,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>32</v>
       </c>
@@ -3046,7 +3044,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
         <v>33</v>
       </c>
@@ -3093,7 +3091,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
         <v>34</v>
       </c>
@@ -3140,7 +3138,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
         <v>35</v>
       </c>
@@ -3199,7 +3197,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
